--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8128656666666667</v>
+        <v>1.006353333333333</v>
       </c>
       <c r="N2">
-        <v>2.438597</v>
+        <v>3.01906</v>
       </c>
       <c r="O2">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="P2">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="Q2">
-        <v>86.8779360417881</v>
+        <v>212.8049518515556</v>
       </c>
       <c r="R2">
-        <v>781.901424376093</v>
+        <v>1915.244566664</v>
       </c>
       <c r="S2">
-        <v>0.021481832342888</v>
+        <v>0.04788692433863566</v>
       </c>
       <c r="T2">
-        <v>0.02148183234288801</v>
+        <v>0.04788692433863565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.929514</v>
       </c>
       <c r="O3">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="P3">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="Q3">
-        <v>104.3674415762518</v>
+        <v>206.4931090201778</v>
       </c>
       <c r="R3">
-        <v>939.306974186266</v>
+        <v>1858.4379811816</v>
       </c>
       <c r="S3">
-        <v>0.02580636677324839</v>
+        <v>0.04646658737056365</v>
       </c>
       <c r="T3">
-        <v>0.0258063667732484</v>
+        <v>0.04646658737056365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3834526666666667</v>
+        <v>0.4032286666666666</v>
       </c>
       <c r="N4">
-        <v>1.150358</v>
+        <v>1.209686</v>
       </c>
       <c r="O4">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303393</v>
       </c>
       <c r="P4">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303391</v>
       </c>
       <c r="Q4">
-        <v>40.98288021725578</v>
+        <v>85.26732525537777</v>
       </c>
       <c r="R4">
-        <v>368.845921955302</v>
+        <v>767.4059272983999</v>
       </c>
       <c r="S4">
-        <v>0.01013361276598797</v>
+        <v>0.01918747621958716</v>
       </c>
       <c r="T4">
-        <v>0.01013361276598797</v>
+        <v>0.01918747621958715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.502190666666667</v>
+        <v>1.746123333333333</v>
       </c>
       <c r="N5">
-        <v>7.506572</v>
+        <v>5.23837</v>
       </c>
       <c r="O5">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="P5">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="Q5">
-        <v>267.4306095304298</v>
+        <v>369.2378010475555</v>
       </c>
       <c r="R5">
-        <v>2406.875485773868</v>
+        <v>3323.140209428</v>
       </c>
       <c r="S5">
-        <v>0.06612610495863706</v>
+        <v>0.08308858646326302</v>
       </c>
       <c r="T5">
-        <v>0.06612610495863709</v>
+        <v>0.08308858646326302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8385983333333334</v>
+        <v>0.6638866666666666</v>
       </c>
       <c r="N6">
-        <v>2.515795</v>
+        <v>1.99166</v>
       </c>
       <c r="O6">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="P6">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="Q6">
-        <v>89.62820716348389</v>
+        <v>140.3864482337778</v>
       </c>
       <c r="R6">
-        <v>806.6538644713551</v>
+        <v>1263.478034104</v>
       </c>
       <c r="S6">
-        <v>0.02216187684930143</v>
+        <v>0.03159078379637605</v>
       </c>
       <c r="T6">
-        <v>0.02216187684930144</v>
+        <v>0.03159078379637605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1954433333333333</v>
+        <v>0.2918143333333333</v>
       </c>
       <c r="N7">
-        <v>0.58633</v>
+        <v>0.875443</v>
       </c>
       <c r="O7">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="P7">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="Q7">
-        <v>20.88870782641889</v>
+        <v>61.70748692102222</v>
       </c>
       <c r="R7">
-        <v>187.99837043777</v>
+        <v>555.3673822892</v>
       </c>
       <c r="S7">
-        <v>0.005165036599981679</v>
+        <v>0.01388586934469279</v>
       </c>
       <c r="T7">
-        <v>0.00516503659998168</v>
+        <v>0.01388586934469279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8128656666666667</v>
+        <v>1.006353333333333</v>
       </c>
       <c r="N8">
-        <v>2.438597</v>
+        <v>3.01906</v>
       </c>
       <c r="O8">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="P8">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="Q8">
-        <v>62.77999144301034</v>
+        <v>77.72360950412667</v>
       </c>
       <c r="R8">
-        <v>565.0199229870931</v>
+        <v>699.51248553714</v>
       </c>
       <c r="S8">
-        <v>0.01552326530890425</v>
+        <v>0.01748993421095793</v>
       </c>
       <c r="T8">
-        <v>0.01552326530890425</v>
+        <v>0.01748993421095793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.929514</v>
       </c>
       <c r="O9">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="P9">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="Q9">
         <v>75.41830972980733</v>
@@ -1013,10 +1013,10 @@
         <v>678.764787568266</v>
       </c>
       <c r="S9">
-        <v>0.01864827318665172</v>
+        <v>0.01697117882058661</v>
       </c>
       <c r="T9">
-        <v>0.01864827318665172</v>
+        <v>0.01697117882058661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3834526666666667</v>
+        <v>0.4032286666666666</v>
       </c>
       <c r="N10">
-        <v>1.150358</v>
+        <v>1.209686</v>
       </c>
       <c r="O10">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303393</v>
       </c>
       <c r="P10">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303391</v>
       </c>
       <c r="Q10">
-        <v>29.61517027881133</v>
+        <v>31.14252856405933</v>
       </c>
       <c r="R10">
-        <v>266.536532509302</v>
+        <v>280.282757076534</v>
       </c>
       <c r="S10">
-        <v>0.007322781268992159</v>
+        <v>0.007007919205288021</v>
       </c>
       <c r="T10">
-        <v>0.007322781268992161</v>
+        <v>0.007007919205288019</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.502190666666667</v>
+        <v>1.746123333333333</v>
       </c>
       <c r="N11">
-        <v>7.506572</v>
+        <v>5.23837</v>
       </c>
       <c r="O11">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="P11">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="Q11">
-        <v>193.2514990899853</v>
+        <v>134.8582089518367</v>
       </c>
       <c r="R11">
-        <v>1739.263491809868</v>
+        <v>1213.72388056653</v>
       </c>
       <c r="S11">
-        <v>0.04778424180641245</v>
+        <v>0.03034677902150195</v>
       </c>
       <c r="T11">
-        <v>0.04778424180641246</v>
+        <v>0.03034677902150195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8385983333333334</v>
+        <v>0.6638866666666666</v>
       </c>
       <c r="N12">
-        <v>2.515795</v>
+        <v>1.99166</v>
       </c>
       <c r="O12">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="P12">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="Q12">
-        <v>64.76740050626168</v>
+        <v>51.27390780739333</v>
       </c>
       <c r="R12">
-        <v>582.9066045563551</v>
+        <v>461.46517026654</v>
       </c>
       <c r="S12">
-        <v>0.01601468108417043</v>
+        <v>0.01153802917815362</v>
       </c>
       <c r="T12">
-        <v>0.01601468108417044</v>
+        <v>0.01153802917815362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1954433333333333</v>
+        <v>0.2918143333333333</v>
       </c>
       <c r="N13">
-        <v>0.58633</v>
+        <v>0.875443</v>
       </c>
       <c r="O13">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="P13">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="Q13">
-        <v>15.09465991419667</v>
+        <v>22.53767393662967</v>
       </c>
       <c r="R13">
-        <v>135.85193922777</v>
+        <v>202.839065429667</v>
       </c>
       <c r="S13">
-        <v>0.003732374044817502</v>
+        <v>0.005071591977451141</v>
       </c>
       <c r="T13">
-        <v>0.003732374044817504</v>
+        <v>0.005071591977451141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8128656666666667</v>
+        <v>1.006353333333333</v>
       </c>
       <c r="N14">
-        <v>2.438597</v>
+        <v>3.01906</v>
       </c>
       <c r="O14">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="P14">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="Q14">
-        <v>111.099501793063</v>
+        <v>175.4181583415311</v>
       </c>
       <c r="R14">
-        <v>999.8955161375671</v>
+        <v>1578.76342507378</v>
       </c>
       <c r="S14">
-        <v>0.02747096650349756</v>
+        <v>0.03947387503455928</v>
       </c>
       <c r="T14">
-        <v>0.02747096650349757</v>
+        <v>0.03947387503455927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.929514</v>
       </c>
       <c r="O15">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="P15">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="Q15">
-        <v>133.465080903406</v>
+        <v>170.2152162314536</v>
       </c>
       <c r="R15">
-        <v>1201.185728130654</v>
+        <v>1531.936946083082</v>
       </c>
       <c r="S15">
-        <v>0.0330011809928115</v>
+        <v>0.03830307100487963</v>
       </c>
       <c r="T15">
-        <v>0.03300118099281151</v>
+        <v>0.03830307100487962</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3834526666666667</v>
+        <v>0.4032286666666666</v>
       </c>
       <c r="N16">
-        <v>1.150358</v>
+        <v>1.209686</v>
       </c>
       <c r="O16">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303393</v>
       </c>
       <c r="P16">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303391</v>
       </c>
       <c r="Q16">
-        <v>52.408905892882</v>
+        <v>70.28707289405754</v>
       </c>
       <c r="R16">
-        <v>471.680153035938</v>
+        <v>632.5836560465178</v>
       </c>
       <c r="S16">
-        <v>0.01295886367654452</v>
+        <v>0.01581651043538581</v>
       </c>
       <c r="T16">
-        <v>0.01295886367654453</v>
+        <v>0.0158165104353858</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.502190666666667</v>
+        <v>1.746123333333333</v>
       </c>
       <c r="N17">
-        <v>7.506572</v>
+        <v>5.23837</v>
       </c>
       <c r="O17">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="P17">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="Q17">
-        <v>341.9902547955881</v>
+        <v>304.3679880862011</v>
       </c>
       <c r="R17">
-        <v>3077.912293160292</v>
+        <v>2739.31189277581</v>
       </c>
       <c r="S17">
-        <v>0.08456206087684547</v>
+        <v>0.06849110741912524</v>
       </c>
       <c r="T17">
-        <v>0.08456206087684548</v>
+        <v>0.06849110741912524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8385983333333334</v>
+        <v>0.6638866666666666</v>
       </c>
       <c r="N18">
-        <v>2.515795</v>
+        <v>1.99166</v>
       </c>
       <c r="O18">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="P18">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="Q18">
-        <v>114.616548414305</v>
+        <v>115.7225524641755</v>
       </c>
       <c r="R18">
-        <v>1031.548935728745</v>
+        <v>1041.50297217758</v>
       </c>
       <c r="S18">
-        <v>0.02834060739624737</v>
+        <v>0.02604073385468666</v>
       </c>
       <c r="T18">
-        <v>0.02834060739624738</v>
+        <v>0.02604073385468667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1954433333333333</v>
+        <v>0.2918143333333333</v>
       </c>
       <c r="N19">
-        <v>0.58633</v>
+        <v>0.875443</v>
       </c>
       <c r="O19">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="P19">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="Q19">
-        <v>26.71247889107</v>
+        <v>50.86636197789544</v>
       </c>
       <c r="R19">
-        <v>240.41231001963</v>
+        <v>457.7972578010589</v>
       </c>
       <c r="S19">
-        <v>0.006605048636570833</v>
+        <v>0.01144632023937241</v>
       </c>
       <c r="T19">
-        <v>0.006605048636570835</v>
+        <v>0.01144632023937241</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8128656666666667</v>
+        <v>1.006353333333333</v>
       </c>
       <c r="N20">
-        <v>2.438597</v>
+        <v>3.01906</v>
       </c>
       <c r="O20">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="P20">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="Q20">
-        <v>37.02657113042456</v>
+        <v>28.71603910107778</v>
       </c>
       <c r="R20">
-        <v>333.2391401738211</v>
+        <v>258.4443519097</v>
       </c>
       <c r="S20">
-        <v>0.009155357844518916</v>
+        <v>0.006461892826149301</v>
       </c>
       <c r="T20">
-        <v>0.009155357844518918</v>
+        <v>0.0064618928261493</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.929514</v>
       </c>
       <c r="O21">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="P21">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="Q21">
-        <v>44.48043629126689</v>
+        <v>27.86431490965889</v>
       </c>
       <c r="R21">
-        <v>400.3239266214021</v>
+        <v>250.77883418693</v>
       </c>
       <c r="S21">
-        <v>0.01099843433766546</v>
+        <v>0.006270231628620809</v>
       </c>
       <c r="T21">
-        <v>0.01099843433766546</v>
+        <v>0.006270231628620809</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3834526666666667</v>
+        <v>0.4032286666666666</v>
       </c>
       <c r="N22">
-        <v>1.150358</v>
+        <v>1.209686</v>
       </c>
       <c r="O22">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303393</v>
       </c>
       <c r="P22">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303391</v>
       </c>
       <c r="Q22">
-        <v>17.46652370705489</v>
+        <v>11.50602852411889</v>
       </c>
       <c r="R22">
-        <v>157.198713363494</v>
+        <v>103.55425671707</v>
       </c>
       <c r="S22">
-        <v>0.004318851839522927</v>
+        <v>0.002589170564776202</v>
       </c>
       <c r="T22">
-        <v>0.004318851839522928</v>
+        <v>0.002589170564776202</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.502190666666667</v>
+        <v>1.746123333333333</v>
       </c>
       <c r="N23">
-        <v>7.506572</v>
+        <v>5.23837</v>
       </c>
       <c r="O23">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="P23">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="Q23">
-        <v>113.9764471553329</v>
+        <v>49.82518987562777</v>
       </c>
       <c r="R23">
-        <v>1025.788024397996</v>
+        <v>448.4267088806499</v>
       </c>
       <c r="S23">
-        <v>0.02818233305693645</v>
+        <v>0.01121202808944364</v>
       </c>
       <c r="T23">
-        <v>0.02818233305693645</v>
+        <v>0.01121202808944364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8385983333333334</v>
+        <v>0.6638866666666666</v>
       </c>
       <c r="N24">
-        <v>2.515795</v>
+        <v>1.99166</v>
       </c>
       <c r="O24">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="P24">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="Q24">
-        <v>38.19871119215945</v>
+        <v>18.94383895518888</v>
       </c>
       <c r="R24">
-        <v>343.7884007294351</v>
+        <v>170.4945505967</v>
       </c>
       <c r="S24">
-        <v>0.0094451865102973</v>
+        <v>0.004262880984852409</v>
       </c>
       <c r="T24">
-        <v>0.009445186510297302</v>
+        <v>0.00426288098485241</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1954433333333333</v>
+        <v>0.2918143333333333</v>
       </c>
       <c r="N25">
-        <v>0.58633</v>
+        <v>0.875443</v>
       </c>
       <c r="O25">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="P25">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="Q25">
-        <v>8.902573672854444</v>
+        <v>8.326848561726111</v>
       </c>
       <c r="R25">
-        <v>80.12316305569</v>
+        <v>74.941637055535</v>
       </c>
       <c r="S25">
-        <v>0.002201290727814713</v>
+        <v>0.001873768272708267</v>
       </c>
       <c r="T25">
-        <v>0.002201290727814713</v>
+        <v>0.001873768272708267</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8128656666666667</v>
+        <v>1.006353333333333</v>
       </c>
       <c r="N26">
-        <v>2.438597</v>
+        <v>3.01906</v>
       </c>
       <c r="O26">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="P26">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="Q26">
-        <v>161.4336669123671</v>
+        <v>231.7923669768667</v>
       </c>
       <c r="R26">
-        <v>1452.903002211304</v>
+        <v>2086.1313027918</v>
       </c>
       <c r="S26">
-        <v>0.03991682037014609</v>
+        <v>0.05215961115151723</v>
       </c>
       <c r="T26">
-        <v>0.03991682037014609</v>
+        <v>0.05215961115151722</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.929514</v>
       </c>
       <c r="O27">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="P27">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="Q27">
-        <v>193.9320795076498</v>
+        <v>224.9173531337134</v>
       </c>
       <c r="R27">
-        <v>1745.388715568848</v>
+        <v>2024.25617820342</v>
       </c>
       <c r="S27">
-        <v>0.04795252520602139</v>
+        <v>0.05061254532964758</v>
       </c>
       <c r="T27">
-        <v>0.0479525252060214</v>
+        <v>0.05061254532964758</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3834526666666667</v>
+        <v>0.4032286666666666</v>
       </c>
       <c r="N28">
-        <v>1.150358</v>
+        <v>1.209686</v>
       </c>
       <c r="O28">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303393</v>
       </c>
       <c r="P28">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303391</v>
       </c>
       <c r="Q28">
-        <v>76.15301347536177</v>
+        <v>92.87525959695333</v>
       </c>
       <c r="R28">
-        <v>685.377121278256</v>
+        <v>835.8773363725799</v>
       </c>
       <c r="S28">
-        <v>0.01882993936569286</v>
+        <v>0.02089946916438701</v>
       </c>
       <c r="T28">
-        <v>0.01882993936569287</v>
+        <v>0.02089946916438701</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.502190666666667</v>
+        <v>1.746123333333333</v>
       </c>
       <c r="N29">
-        <v>7.506572</v>
+        <v>5.23837</v>
       </c>
       <c r="O29">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="P29">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="Q29">
-        <v>496.9305891468338</v>
+        <v>402.1828587045667</v>
       </c>
       <c r="R29">
-        <v>4472.375302321504</v>
+        <v>3619.6457283411</v>
       </c>
       <c r="S29">
-        <v>0.1228733103992043</v>
+        <v>0.09050212392856494</v>
       </c>
       <c r="T29">
-        <v>0.1228733103992043</v>
+        <v>0.09050212392856494</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8385983333333334</v>
+        <v>0.6638866666666666</v>
       </c>
       <c r="N30">
-        <v>2.515795</v>
+        <v>1.99166</v>
       </c>
       <c r="O30">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="P30">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="Q30">
-        <v>166.5441284680489</v>
+        <v>152.9123586855333</v>
       </c>
       <c r="R30">
-        <v>1498.89715621244</v>
+        <v>1376.2112281698</v>
       </c>
       <c r="S30">
-        <v>0.04118045626362687</v>
+        <v>0.03440945564050757</v>
       </c>
       <c r="T30">
-        <v>0.04118045626362687</v>
+        <v>0.03440945564050758</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.1954433333333333</v>
+        <v>0.2918143333333333</v>
       </c>
       <c r="N31">
-        <v>0.58633</v>
+        <v>0.875443</v>
       </c>
       <c r="O31">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="P31">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="Q31">
-        <v>38.81469628672889</v>
+        <v>67.21330650047668</v>
       </c>
       <c r="R31">
-        <v>349.33226658056</v>
+        <v>604.91975850429</v>
       </c>
       <c r="S31">
-        <v>0.009597497777462924</v>
+        <v>0.01512482907438663</v>
       </c>
       <c r="T31">
-        <v>0.009597497777462926</v>
+        <v>0.01512482907438663</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H32">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I32">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J32">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.8128656666666667</v>
+        <v>1.006353333333333</v>
       </c>
       <c r="N32">
-        <v>2.438597</v>
+        <v>3.01906</v>
       </c>
       <c r="O32">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="P32">
-        <v>0.1423818161159879</v>
+        <v>0.1977930300536573</v>
       </c>
       <c r="Q32">
-        <v>116.6102283911258</v>
+        <v>152.5183480585356</v>
       </c>
       <c r="R32">
-        <v>1049.492055520132</v>
+        <v>1372.66513252682</v>
       </c>
       <c r="S32">
-        <v>0.02883357374603308</v>
+        <v>0.03432079249183788</v>
       </c>
       <c r="T32">
-        <v>0.02883357374603308</v>
+        <v>0.03432079249183788</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H33">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I33">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J33">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.929514</v>
       </c>
       <c r="O33">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="P33">
-        <v>0.171044876893235</v>
+        <v>0.1919264442060143</v>
       </c>
       <c r="Q33">
-        <v>140.0851787380204</v>
+        <v>147.9946194823398</v>
       </c>
       <c r="R33">
-        <v>1260.766608642184</v>
+        <v>1331.951575341058</v>
       </c>
       <c r="S33">
-        <v>0.03463809639683652</v>
+        <v>0.03330283005171608</v>
       </c>
       <c r="T33">
-        <v>0.03463809639683652</v>
+        <v>0.03330283005171608</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H34">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I34">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J34">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.3834526666666667</v>
+        <v>0.4032286666666666</v>
       </c>
       <c r="N34">
-        <v>1.150358</v>
+        <v>1.209686</v>
       </c>
       <c r="O34">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303393</v>
       </c>
       <c r="P34">
-        <v>0.06716569454631315</v>
+        <v>0.07925230348303391</v>
       </c>
       <c r="Q34">
-        <v>55.00847787131644</v>
+        <v>61.11150834681577</v>
       </c>
       <c r="R34">
-        <v>495.076300841848</v>
+        <v>550.0035751213419</v>
       </c>
       <c r="S34">
-        <v>0.01360164562957271</v>
+        <v>0.01375175789360973</v>
       </c>
       <c r="T34">
-        <v>0.01360164562957271</v>
+        <v>0.01375175789360973</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H35">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I35">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J35">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.502190666666667</v>
+        <v>1.746123333333333</v>
       </c>
       <c r="N35">
-        <v>7.506572</v>
+        <v>5.23837</v>
       </c>
       <c r="O35">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="P35">
-        <v>0.4382845358070331</v>
+        <v>0.3431906205382392</v>
       </c>
       <c r="Q35">
-        <v>358.9535603276925</v>
+        <v>264.6345348947655</v>
       </c>
       <c r="R35">
-        <v>3230.582042949232</v>
+        <v>2381.71081405289</v>
       </c>
       <c r="S35">
-        <v>0.08875648470899744</v>
+        <v>0.05954999561634045</v>
       </c>
       <c r="T35">
-        <v>0.08875648470899744</v>
+        <v>0.05954999561634045</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H36">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I36">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J36">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8385983333333334</v>
+        <v>0.6638866666666666</v>
       </c>
       <c r="N36">
-        <v>2.515795</v>
+        <v>1.99166</v>
       </c>
       <c r="O36">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="P36">
-        <v>0.1468891584281953</v>
+        <v>0.1304831524503213</v>
       </c>
       <c r="Q36">
-        <v>120.3017265810022</v>
+        <v>100.6156529165578</v>
       </c>
       <c r="R36">
-        <v>1082.71553922902</v>
+        <v>905.5408762490199</v>
       </c>
       <c r="S36">
-        <v>0.0297463503245519</v>
+        <v>0.02264126899574497</v>
       </c>
       <c r="T36">
-        <v>0.02974635032455191</v>
+        <v>0.02264126899574498</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H37">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I37">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J37">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.1954433333333333</v>
+        <v>0.2918143333333333</v>
       </c>
       <c r="N37">
-        <v>0.58633</v>
+        <v>0.875443</v>
       </c>
       <c r="O37">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="P37">
-        <v>0.03423391820923555</v>
+        <v>0.05735444926873393</v>
       </c>
       <c r="Q37">
-        <v>28.03746384194222</v>
+        <v>44.22605717654123</v>
       </c>
       <c r="R37">
-        <v>252.33717457748</v>
+        <v>398.0345145888709</v>
       </c>
       <c r="S37">
-        <v>0.006932670422587895</v>
+        <v>0.009952070360122696</v>
       </c>
       <c r="T37">
-        <v>0.006932670422587896</v>
+        <v>0.009952070360122696</v>
       </c>
     </row>
   </sheetData>
